--- a/fhir/ig/urgencia/StructureDefinition-IndicacionHospitalizacion.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-IndicacionHospitalizacion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>85</v>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>85</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>

--- a/fhir/ig/urgencia/StructureDefinition-IndicacionHospitalizacion.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-IndicacionHospitalizacion.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
